--- a/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
+++ b/VerveStacks_BGR/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051736B5-DC5D-489D-A436-3AEF6D5C43C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645EF022-4035-4D89-AC1C-042FAE4FD660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="61">
   <si>
     <t>PSET_PN</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>ELE,-STG</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3954DD3-0F24-46DF-B268-7A98442D0282}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
@@ -1178,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1807,7 +1810,7 @@
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
